--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H2">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I2">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J2">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N2">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O2">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P2">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q2">
-        <v>15165.699157</v>
+        <v>3531.920643107888</v>
       </c>
       <c r="R2">
-        <v>136491.292413</v>
+        <v>31787.28578797099</v>
       </c>
       <c r="S2">
-        <v>0.5900057926446609</v>
+        <v>0.3712687296504235</v>
       </c>
       <c r="T2">
-        <v>0.5900057926446611</v>
+        <v>0.3712687296504236</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H3">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I3">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J3">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>120.936512</v>
       </c>
       <c r="O3">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P3">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q3">
-        <v>3576.613358711111</v>
+        <v>1053.946343142976</v>
       </c>
       <c r="R3">
-        <v>32189.5202284</v>
+        <v>9485.517088286784</v>
       </c>
       <c r="S3">
-        <v>0.1391444323037241</v>
+        <v>0.1107888198739604</v>
       </c>
       <c r="T3">
-        <v>0.1391444323037241</v>
+        <v>0.1107888198739604</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H4">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I4">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J4">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N4">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O4">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P4">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q4">
-        <v>985.9106983916665</v>
+        <v>372.116301222889</v>
       </c>
       <c r="R4">
-        <v>8873.196285524999</v>
+        <v>3349.046711006001</v>
       </c>
       <c r="S4">
-        <v>0.03835583292663007</v>
+        <v>0.03911615248401158</v>
       </c>
       <c r="T4">
-        <v>0.03835583292663008</v>
+        <v>0.03911615248401158</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>53.74755</v>
       </c>
       <c r="I5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N5">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O5">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P5">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q5">
-        <v>3062.415004488</v>
+        <v>2420.2823706792</v>
       </c>
       <c r="R5">
-        <v>27561.735040392</v>
+        <v>21782.5413361128</v>
       </c>
       <c r="S5">
-        <v>0.1191400787675433</v>
+        <v>0.2544154447271747</v>
       </c>
       <c r="T5">
-        <v>0.1191400787675434</v>
+        <v>0.2544154447271747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>53.74755</v>
       </c>
       <c r="I6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>120.936512</v>
       </c>
       <c r="O6">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P6">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q6">
-        <v>722.2268028384</v>
+        <v>722.2268028384001</v>
       </c>
       <c r="R6">
-        <v>6500.041225545599</v>
+        <v>6500.0412255456</v>
       </c>
       <c r="S6">
-        <v>0.02809748451862221</v>
+        <v>0.07591909748384146</v>
       </c>
       <c r="T6">
-        <v>0.02809748451862222</v>
+        <v>0.07591909748384144</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>53.74755</v>
       </c>
       <c r="I7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N7">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O7">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P7">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q7">
-        <v>199.0852966674</v>
+        <v>254.9962512463501</v>
       </c>
       <c r="R7">
-        <v>1791.7676700066</v>
+        <v>2294.96626121715</v>
       </c>
       <c r="S7">
-        <v>0.007745206933630248</v>
+        <v>0.02680471727205812</v>
       </c>
       <c r="T7">
-        <v>0.007745206933630249</v>
+        <v>0.02680471727205812</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H8">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I8">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J8">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N8">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O8">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P8">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q8">
-        <v>1531.59848363312</v>
+        <v>824.6558904463269</v>
       </c>
       <c r="R8">
-        <v>13784.38635269808</v>
+        <v>7421.903014016943</v>
       </c>
       <c r="S8">
-        <v>0.0595852501091071</v>
+        <v>0.08668624688445307</v>
       </c>
       <c r="T8">
-        <v>0.05958525010910712</v>
+        <v>0.08668624688445309</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H9">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I9">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J9">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>120.936512</v>
       </c>
       <c r="O9">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P9">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q9">
-        <v>361.2056087909049</v>
+        <v>246.0822730497209</v>
       </c>
       <c r="R9">
-        <v>3250.850479118144</v>
+        <v>2214.740457447488</v>
       </c>
       <c r="S9">
-        <v>0.01405232949145037</v>
+        <v>0.02586769696622193</v>
       </c>
       <c r="T9">
-        <v>0.01405232949145038</v>
+        <v>0.02586769696622194</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H10">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I10">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J10">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N10">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O10">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P10">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q10">
-        <v>99.56806573980931</v>
+        <v>86.88414342869522</v>
       </c>
       <c r="R10">
-        <v>896.1125916582839</v>
+        <v>781.957290858257</v>
       </c>
       <c r="S10">
-        <v>0.003873592304631519</v>
+        <v>0.009133094657855119</v>
       </c>
       <c r="T10">
-        <v>0.00387359230463152</v>
+        <v>0.009133094657855121</v>
       </c>
     </row>
   </sheetData>
